--- a/Tunning.xlsx
+++ b/Tunning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>min_samples_leaf</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Lowest Baseline</t>
   </si>
   <si>
-    <t>Colonne1</t>
-  </si>
-  <si>
     <t>22963</t>
   </si>
   <si>
@@ -69,20 +66,29 @@
     <t>[Parallel(n_jobs=-1)]: Done 2880 out of 2880 | elapsed: 36.8min finished</t>
   </si>
   <si>
-    <t>grid_search.best_params_</t>
-  </si>
-  <si>
     <t>22963-t</t>
   </si>
   <si>
     <t>584753-t</t>
+  </si>
+  <si>
+    <t>optimal hyperparameters: {'C': 99.95588514579595, 'gamma': 22.38053385416667}</t>
+  </si>
+  <si>
+    <t>Dataset Size</t>
+  </si>
+  <si>
+    <t>best params</t>
+  </si>
+  <si>
+    <t>grid_search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,16 +96,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -107,22 +133,236 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -292,11 +532,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:E32" totalsRowShown="0">
   <autoFilter ref="A1:E32"/>
   <tableColumns count="5">
-    <tableColumn id="4" name="Colonne1"/>
+    <tableColumn id="4" name="Dataset Size"/>
     <tableColumn id="1" name="min_samples_leaf"/>
-    <tableColumn id="2" name="MSE" dataDxfId="17"/>
-    <tableColumn id="3" name="Lowest Baseline" dataDxfId="16"/>
-    <tableColumn id="5" name="difference" dataDxfId="15">
+    <tableColumn id="2" name="MSE" dataDxfId="26"/>
+    <tableColumn id="3" name="Lowest Baseline" dataDxfId="25"/>
+    <tableColumn id="5" name="difference" dataDxfId="24">
       <calculatedColumnFormula>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -308,8 +548,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B2:C9" totalsRowShown="0">
   <autoFilter ref="B2:C9"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="grid_search.best_params_"/>
-    <tableColumn id="2" name="Colonne1" dataDxfId="14"/>
+    <tableColumn id="1" name="grid_search"/>
+    <tableColumn id="2" name="best params" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -578,28 +818,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C32"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -611,12 +854,27 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -633,10 +891,24 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>370739710.08600003</v>
+      </c>
+      <c r="K2" s="9">
+        <v>387078410.361</v>
+      </c>
+      <c r="L2" s="10">
+        <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
+        <v>16338700.274999976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>5</v>
       </c>
@@ -652,10 +924,22 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="11"/>
+      <c r="I3" s="12">
+        <v>5</v>
+      </c>
+      <c r="J3" s="13">
+        <v>364797478.68000001</v>
+      </c>
+      <c r="K3" s="13">
+        <v>387078410.361</v>
+      </c>
+      <c r="L3" s="14">
+        <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
+        <v>22280931.680999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>10</v>
       </c>
@@ -671,10 +955,22 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>10</v>
+      </c>
+      <c r="J4" s="9">
+        <v>361678506.29500002</v>
+      </c>
+      <c r="K4" s="9">
+        <v>387078410.361</v>
+      </c>
+      <c r="L4" s="10">
+        <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
+        <v>25399904.065999985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>50</v>
       </c>
@@ -690,10 +986,22 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="11"/>
+      <c r="I5" s="12">
+        <v>50</v>
+      </c>
+      <c r="J5" s="13">
+        <v>364621038.26499999</v>
+      </c>
+      <c r="K5" s="13">
+        <v>387078410.361</v>
+      </c>
+      <c r="L5" s="14">
+        <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
+        <v>22457372.096000016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>100</v>
       </c>
@@ -709,10 +1017,22 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>100</v>
+      </c>
+      <c r="J6" s="9">
+        <v>368102565.55400002</v>
+      </c>
+      <c r="K6" s="9">
+        <v>387078410.361</v>
+      </c>
+      <c r="L6" s="10">
+        <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
+        <v>18975844.806999981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>200</v>
       </c>
@@ -728,10 +1048,22 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="11"/>
+      <c r="I7" s="12">
+        <v>200</v>
+      </c>
+      <c r="J7" s="13">
+        <v>376541611.07800001</v>
+      </c>
+      <c r="K7" s="13">
+        <v>387078410.361</v>
+      </c>
+      <c r="L7" s="14">
+        <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
+        <v>10536799.282999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>500</v>
       </c>
@@ -747,21 +1079,38 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="15"/>
+      <c r="I8" s="16">
+        <v>500</v>
+      </c>
+      <c r="J8" s="17">
+        <v>378097463.85500002</v>
+      </c>
+      <c r="K8" s="17">
+        <v>387078410.361</v>
+      </c>
+      <c r="L8" s="18">
+        <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
+        <v>8980946.5059999824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -777,10 +1126,22 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>339177990.35600001</v>
+      </c>
+      <c r="K10" s="9">
+        <v>422399839.29699999</v>
+      </c>
+      <c r="L10" s="10">
+        <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
+        <v>24068227.727999985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -796,10 +1157,22 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="11"/>
+      <c r="I11" s="12">
+        <v>5</v>
+      </c>
+      <c r="J11" s="13">
+        <v>351277438.14600003</v>
+      </c>
+      <c r="K11" s="13">
+        <v>422399839.29699999</v>
+      </c>
+      <c r="L11" s="14">
+        <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
+        <v>23237814.550000012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
@@ -815,10 +1188,22 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>10</v>
+      </c>
+      <c r="J12" s="9">
+        <v>369110076.62</v>
+      </c>
+      <c r="K12" s="9">
+        <v>422399839.29699999</v>
+      </c>
+      <c r="L12" s="10">
+        <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
+        <v>21968050.068000019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>50</v>
       </c>
@@ -834,10 +1219,22 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="11"/>
+      <c r="I13" s="12">
+        <v>50</v>
+      </c>
+      <c r="J13" s="13">
+        <v>398202400.01099998</v>
+      </c>
+      <c r="K13" s="13">
+        <v>422399839.29699999</v>
+      </c>
+      <c r="L13" s="14">
+        <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
+        <v>19620646.949000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>100</v>
       </c>
@@ -853,10 +1250,22 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>100</v>
+      </c>
+      <c r="J14" s="9">
+        <v>404896284.56199998</v>
+      </c>
+      <c r="K14" s="9">
+        <v>422399839.29699999</v>
+      </c>
+      <c r="L14" s="10">
+        <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
+        <v>15213548.449999988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>200</v>
       </c>
@@ -872,10 +1281,22 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="11"/>
+      <c r="I15" s="12">
+        <v>200</v>
+      </c>
+      <c r="J15" s="13">
+        <v>405782501.55699998</v>
+      </c>
+      <c r="K15" s="13">
+        <v>422399839.29699999</v>
+      </c>
+      <c r="L15" s="14">
+        <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
+        <v>9485615.1340000033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>500</v>
       </c>
@@ -891,12 +1312,24 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>500</v>
+      </c>
+      <c r="J16" s="9">
+        <v>409834400.83899999</v>
+      </c>
+      <c r="K16" s="9">
+        <v>422399839.29699999</v>
+      </c>
+      <c r="L16" s="10">
+        <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
+        <v>7955079.0460000038</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1012,7 +1445,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1124,25 +1557,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E10:E16">
-    <cfRule type="top10" dxfId="12" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E32">
-    <cfRule type="top10" dxfId="11" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E8">
-    <cfRule type="top10" dxfId="10" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C8">
-    <cfRule type="top10" dxfId="9" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C16">
-    <cfRule type="top10" dxfId="8" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C24">
-    <cfRule type="top10" dxfId="7" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C32">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="6" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E32">
+    <cfRule type="top10" dxfId="8" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L8">
+    <cfRule type="top10" dxfId="7" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J8">
+    <cfRule type="top10" dxfId="5" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L16">
+    <cfRule type="top10" dxfId="3" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J16">
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1154,11 +1602,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1169,28 +1615,28 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>110</v>
@@ -1198,7 +1644,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -1214,7 +1660,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>10</v>
@@ -1222,7 +1668,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>300</v>
@@ -1234,6 +1680,11 @@
       </c>
       <c r="C9" s="3">
         <v>364626656.097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Tunning.xlsx
+++ b/Tunning.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17355" windowHeight="9120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="min_samples_leaf" sheetId="1" r:id="rId1"/>
     <sheet name="Cross" sheetId="2" r:id="rId2"/>
+    <sheet name="eval" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>min_samples_leaf</t>
   </si>
@@ -82,6 +83,153 @@
   </si>
   <si>
     <t>grid_search</t>
+  </si>
+  <si>
+    <t>[ 0.132891   -0.45055337]</t>
+  </si>
+  <si>
+    <t>[ 0.05801152  0.06313706]</t>
+  </si>
+  <si>
+    <t>[ 0.04959745  0.21322814]</t>
+  </si>
+  <si>
+    <t>without aberrant</t>
+  </si>
+  <si>
+    <t>[ 0.03639932  0.16432967]</t>
+  </si>
+  <si>
+    <t>without biggest account + aberrant</t>
+  </si>
+  <si>
+    <t>[ 0.11758411  0.16320916]</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>class 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.83</t>
+  </si>
+  <si>
+    <t>class 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.15</t>
+  </si>
+  <si>
+    <t>class 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.16</t>
+  </si>
+  <si>
+    <t>class 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.06</t>
+  </si>
+  <si>
+    <t>class 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.56</t>
+  </si>
+  <si>
+    <t>avg / total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.72</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>584753()</t>
+  </si>
+  <si>
+    <t>[ 0.63104342  0.54716491 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   class 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   class 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   class 2</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77     </t>
   </si>
 </sst>
 </file>
@@ -272,117 +420,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -534,9 +572,9 @@
   <tableColumns count="5">
     <tableColumn id="4" name="Dataset Size"/>
     <tableColumn id="1" name="min_samples_leaf"/>
-    <tableColumn id="2" name="MSE" dataDxfId="26"/>
-    <tableColumn id="3" name="Lowest Baseline" dataDxfId="25"/>
-    <tableColumn id="5" name="difference" dataDxfId="24">
+    <tableColumn id="2" name="MSE" dataDxfId="15"/>
+    <tableColumn id="3" name="Lowest Baseline" dataDxfId="14"/>
+    <tableColumn id="5" name="difference" dataDxfId="13">
       <calculatedColumnFormula>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -549,7 +587,7 @@
   <autoFilter ref="B2:C9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="grid_search"/>
-    <tableColumn id="2" name="best params" dataDxfId="23"/>
+    <tableColumn id="2" name="best params" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -820,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +873,7 @@
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1327,7 +1365,7 @@
         <v>7955079.0460000038</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1338,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
@@ -1352,8 +1390,14 @@
         <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
         <v>83221848.940999985</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>5268390.8190000001</v>
+      </c>
+      <c r="J18" s="1">
+        <v>18721391.932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>5</v>
       </c>
@@ -1367,8 +1411,12 @@
         <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
         <v>71122401.150999963</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>3197133.4219999998</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>10</v>
       </c>
@@ -1382,8 +1430,10 @@
         <f>Tableau1[[#This Row],[Lowest Baseline]]-Tableau1[[#This Row],[MSE]]</f>
         <v>53289762.676999986</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>50</v>
       </c>
@@ -1398,7 +1448,7 @@
         <v>24197439.286000013</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>100</v>
       </c>
@@ -1413,7 +1463,7 @@
         <v>17503554.735000014</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>200</v>
       </c>
@@ -1428,7 +1478,7 @@
         <v>16617337.74000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>500</v>
       </c>
@@ -1443,14 +1493,14 @@
         <v>12565438.458000004</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
@@ -1465,7 +1515,7 @@
         <v>-203975112.52599996</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>5</v>
       </c>
@@ -1480,7 +1530,7 @@
         <v>-39613279.891000032</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>10</v>
       </c>
@@ -1495,7 +1545,7 @@
         <v>-9267494.3220000267</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>50</v>
       </c>
@@ -1510,7 +1560,7 @@
         <v>5573263.4869999886</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>100</v>
       </c>
@@ -1525,7 +1575,7 @@
         <v>10867635.444999993</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>200</v>
       </c>
@@ -1540,7 +1590,7 @@
         <v>15883231.004000008</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>500</v>
       </c>
@@ -1557,40 +1607,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E10:E16">
-    <cfRule type="top10" dxfId="22" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E32">
-    <cfRule type="top10" dxfId="21" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E8">
-    <cfRule type="top10" dxfId="20" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C8">
-    <cfRule type="top10" dxfId="19" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C16">
-    <cfRule type="top10" dxfId="18" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C24">
-    <cfRule type="top10" dxfId="17" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C32">
-    <cfRule type="top10" dxfId="16" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E32">
-    <cfRule type="top10" dxfId="8" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L8">
-    <cfRule type="top10" dxfId="7" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J8">
-    <cfRule type="top10" dxfId="5" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L16">
-    <cfRule type="top10" dxfId="3" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J16">
-    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1694,4 +1744,247 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>22963</v>
+      </c>
+      <c r="C1">
+        <v>584753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>149199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>10340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>9348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>21437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11">
+        <v>192969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13">
+        <v>9868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14">
+        <v>9959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17">
+        <v>23877</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>